--- a/schedule_calendarview.xlsx
+++ b/schedule_calendarview.xlsx
@@ -457,27 +457,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Billy Jasmine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Cathy Bob</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pine David</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Eva Sherlock</t>
+          <t>Alex Charlie</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cathy Keven</t>
+          <t>Pine Alex</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Alex Alan</t>
+          <t>Jane Rick</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bob Steve</t>
+          <t>Alice Keven</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sherlock Keven</t>
+          <t>Charlie Rose</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Steve Billy</t>
+          <t>Cathy Bob</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rose Charlie</t>
+          <t>Alan Eva</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Eva Alex</t>
+          <t>Richard Lisa</t>
         </is>
       </c>
     </row>
@@ -521,27 +521,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kobe Lisa</t>
+          <t>Steve Keven</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Richard Jasmine</t>
+          <t>Pine Alice</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Richard Alan</t>
+          <t>David Sherlock</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Charlie Rose</t>
+          <t>Lisa Rose</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Jane Rick</t>
+          <t>Jasmine Richard</t>
         </is>
       </c>
     </row>
@@ -553,27 +553,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>David Kobe</t>
+          <t>Alan Billy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jasmine Alice</t>
+          <t>Eva Sherlock</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Billy Lisa</t>
+          <t>Steve David</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alice Pine</t>
+          <t>Rick Jane</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Jane Rick</t>
+          <t>Kobe Alan</t>
         </is>
       </c>
     </row>
